--- a/Data/Ablation study/HGLMA_ablation.xlsx
+++ b/Data/Ablation study/HGLMA_ablation.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11730" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="HGLMA" sheetId="1" r:id="rId1"/>
-    <sheet name="HGLMA-v1" sheetId="2" r:id="rId2"/>
-    <sheet name="HGLMA-v2" sheetId="3" r:id="rId3"/>
-    <sheet name="HGLMA-v3" sheetId="4" r:id="rId4"/>
+    <sheet name="HGLMA-v1" sheetId="2" r:id="rId1"/>
+    <sheet name="HGLMA-v2" sheetId="3" r:id="rId2"/>
+    <sheet name="HGLMA-v3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,333 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="324">
   <si>
     <t>Acc,AUROC,AUPRC,Recall,F1</t>
-  </si>
-  <si>
-    <t>88.2,0.952,0.944,0.894,0.88</t>
-  </si>
-  <si>
-    <t>82.756,0.934,0.905,0.892,0.901</t>
-  </si>
-  <si>
-    <t>88.884,0.961,0.966,0.857,0.893</t>
-  </si>
-  <si>
-    <t>86,0.961,0.958,0.878,0.851</t>
-  </si>
-  <si>
-    <t>85.534,0.945,0.898,0.857,0.85</t>
-  </si>
-  <si>
-    <t>86.221,0.951,0.945,0.846,0.841</t>
-  </si>
-  <si>
-    <t>87.225,0.939,0.94,0.86,0.851</t>
-  </si>
-  <si>
-    <t>86.225,0.954,0.948,0.876,0.846</t>
-  </si>
-  <si>
-    <t>87.251,0.949,0.947,0.88,0.864</t>
-  </si>
-  <si>
-    <t>86.611,0.954,0.951,0.874,0.854</t>
-  </si>
-  <si>
-    <t>90.7,0.973,0.973,0.904,0.906</t>
-  </si>
-  <si>
-    <t>91.59,0.95,0.967,0.925,0.922</t>
-  </si>
-  <si>
-    <t>91.513,0.962,0.961,0.926,0.924</t>
-  </si>
-  <si>
-    <t>94.6,0.988,0.986,0.982,0.948</t>
-  </si>
-  <si>
-    <t>92.1,0.976,0.975,0.949,0.924</t>
-  </si>
-  <si>
-    <t>92.1,0.975,0.976,0.952,0.924</t>
-  </si>
-  <si>
-    <t>91.2,0.97,0.968,0.949,0.915</t>
-  </si>
-  <si>
-    <t>88.7,0.948,0.933,0.905,0.887</t>
-  </si>
-  <si>
-    <t>88.2,0.95,0.945,0.886,0.881</t>
-  </si>
-  <si>
-    <t>90.8,0.965,0.956,0.945,0.912</t>
-  </si>
-  <si>
-    <t>90.5,0.971,0.967,0.962,0.911</t>
-  </si>
-  <si>
-    <t>91.5,0.97,0.968,0.939,0.917</t>
-  </si>
-  <si>
-    <t>90.9,0.966,0.964,0.927,0.911</t>
-  </si>
-  <si>
-    <t>91.2,0.973,0.971,0.959,0.917</t>
-  </si>
-  <si>
-    <t>89.7,0.964,0.96,0.95,0.902</t>
-  </si>
-  <si>
-    <t>91.5,0.97,0.97,0.955,0.919</t>
-  </si>
-  <si>
-    <t>91.5,0.973,0.973,0.939,0.917</t>
-  </si>
-  <si>
-    <t>87.6,0.951,0.948,0.902,0.878</t>
-  </si>
-  <si>
-    <t>90.8,0.969,0.967,0.952,0.913</t>
-  </si>
-  <si>
-    <t>90.6,0.966,0.963,0.945,0.91</t>
-  </si>
-  <si>
-    <t>91.5,0.97,0.966,0.947,0.918</t>
-  </si>
-  <si>
-    <t>91.6,0.972,0.971,0.947,0.919</t>
-  </si>
-  <si>
-    <t>90.8,0.968,0.969,0.94,0.911</t>
-  </si>
-  <si>
-    <t>91.6,0.968,0.963,0.956,0.919</t>
-  </si>
-  <si>
-    <t>91.3,0.968,0.96,0.935,0.915</t>
-  </si>
-  <si>
-    <t>91.4,0.967,0.964,0.95,0.917</t>
-  </si>
-  <si>
-    <t>90.8,0.973,0.973,0.955,0.913</t>
-  </si>
-  <si>
-    <t>88.3,0.947,0.935,0.883,0.88</t>
-  </si>
-  <si>
-    <t>90.9,0.963,0.958,0.939,0.911</t>
-  </si>
-  <si>
-    <t>91.7,0.969,0.966,0.949,0.92</t>
-  </si>
-  <si>
-    <t>91.6,0.973,0.967,0.943,0.919</t>
-  </si>
-  <si>
-    <t>90.6,0.963,0.961,0.935,0.909</t>
-  </si>
-  <si>
-    <t>90.1,0.966,0.966,0.945,0.906</t>
-  </si>
-  <si>
-    <t>91.1,0.97,0.968,0.948,0.914</t>
-  </si>
-  <si>
-    <t>90.5,0.965,0.964,0.932,0.908</t>
-  </si>
-  <si>
-    <t>89.9,0.963,0.961,0.929,0.902</t>
-  </si>
-  <si>
-    <t>89.2,0.959,0.955,0.922,0.895</t>
-  </si>
-  <si>
-    <t>91.1,0.968,0.965,0.957,0.915</t>
-  </si>
-  <si>
-    <t>90,0.963,0.959,0.942,0.904</t>
-  </si>
-  <si>
-    <t>90.2,0.967,0.966,0.943,0.906</t>
-  </si>
-  <si>
-    <t>91,0.969,0.968,0.943,0.913</t>
-  </si>
-  <si>
-    <t>90.9,0.966,0.962,0.934,0.911</t>
-  </si>
-  <si>
-    <t>89.9,0.958,0.953,0.93,0.902</t>
-  </si>
-  <si>
-    <t>90.5,0.965,0.962,0.94,0.909</t>
-  </si>
-  <si>
-    <t>88.4,0.966,0.969,0.915,0.886</t>
-  </si>
-  <si>
-    <t>91.3,0.972,0.971,0.948,0.916</t>
-  </si>
-  <si>
-    <t>91.7,0.968,0.963,0.951,0.92</t>
-  </si>
-  <si>
-    <t>91.1,0.967,0.963,0.947,0.914</t>
-  </si>
-  <si>
-    <t>89.3,0.96,0.961,0.902,0.894</t>
-  </si>
-  <si>
-    <t>89,0.962,0.963,0.9,0.89</t>
-  </si>
-  <si>
-    <t>87.1,0.958,0.956,0.863,0.864</t>
-  </si>
-  <si>
-    <t>89.2,0.955,0.942,0.921,0.895</t>
-  </si>
-  <si>
-    <t>87,0.949,0.949,0.856,0.852</t>
-  </si>
-  <si>
-    <t>83.2,0.929,0.934,0.865,0.838</t>
-  </si>
-  <si>
-    <t>92.2,0.974,0.976,0.942,0.924</t>
-  </si>
-  <si>
-    <t>85.8,0.941,0.939,0.874,0.857</t>
-  </si>
-  <si>
-    <t>88.1,0.973,0.97,0.944,0.89</t>
-  </si>
-  <si>
-    <t>79.3,0.917,0.91,0.82,0.779</t>
-  </si>
-  <si>
-    <t>91,0.972,0.971,0.953,0.914</t>
-  </si>
-  <si>
-    <t>85.5,0.951,0.952,0.915,0.863</t>
-  </si>
-  <si>
-    <t>86.1,0.983,0.98,0.85,0.822</t>
-  </si>
-  <si>
-    <t>90.5,0.965,0.963,0.936,0.908</t>
-  </si>
-  <si>
-    <t>87.2,0.952,0.951,0.95,0.882</t>
-  </si>
-  <si>
-    <t>91.2,0.969,0.967,0.95,0.916</t>
-  </si>
-  <si>
-    <t>90,0.965,0.961,0.926,0.902</t>
-  </si>
-  <si>
-    <t>87.6,0.964,0.962,0.908,0.877</t>
-  </si>
-  <si>
-    <t>86.6,0.962,0.959,0.934,0.873</t>
-  </si>
-  <si>
-    <t>92.5,0.981,0.982,0.954,0.927</t>
-  </si>
-  <si>
-    <t>88.9,0.963,0.964,0.93,0.895</t>
-  </si>
-  <si>
-    <t>90.4,0.964,0.963,0.935,0.907</t>
-  </si>
-  <si>
-    <t>88.3,0.954,0.949,0.908,0.886</t>
-  </si>
-  <si>
-    <t>83.5,0.972,0.968,0.972,0.863</t>
-  </si>
-  <si>
-    <t>93,0.975,0.975,0.944,0.931</t>
-  </si>
-  <si>
-    <t>89.7,0.958,0.95,0.935,0.901</t>
-  </si>
-  <si>
-    <t>90.6,0.964,0.962,0.914,0.906</t>
-  </si>
-  <si>
-    <t>86.5,0.942,0.931,0.882,0.862</t>
-  </si>
-  <si>
-    <t>91.7,0.969,0.964,0.946,0.92</t>
-  </si>
-  <si>
-    <t>90.6,0.967,0.962,0.953,0.911</t>
-  </si>
-  <si>
-    <t>90.5,0.961,0.953,0.945,0.909</t>
-  </si>
-  <si>
-    <t>92.2,0.972,0.968,0.952,0.924</t>
-  </si>
-  <si>
-    <t>89.8,0.963,0.96,0.926,0.901</t>
-  </si>
-  <si>
-    <t>92.2,0.976,0.974,0.929,0.922</t>
-  </si>
-  <si>
-    <t>90.5,0.968,0.963,0.951,0.91</t>
-  </si>
-  <si>
-    <t>92,0.974,0.974,0.945,0.922</t>
-  </si>
-  <si>
-    <t>92,0.972,0.969,0.95,0.922</t>
-  </si>
-  <si>
-    <t>91.3,0.969,0.966,0.946,0.916</t>
-  </si>
-  <si>
-    <t>87,0.952,0.95,0.879,0.866</t>
-  </si>
-  <si>
-    <t>87.4,0.96,0.954,0.919,0.878</t>
-  </si>
-  <si>
-    <t>91.2,0.969,0.967,0.931,0.914</t>
-  </si>
-  <si>
-    <t>88.3,0.957,0.958,0.934,0.89</t>
-  </si>
-  <si>
-    <t>89.5,0.962,0.961,0.932,0.9</t>
-  </si>
-  <si>
-    <t>94,0.985,0.986,0.945,0.94</t>
-  </si>
-  <si>
-    <t>92.2,0.979,0.976,0.961,0.925</t>
-  </si>
-  <si>
-    <t>91.1,0.967,0.966,0.922,0.912</t>
-  </si>
-  <si>
-    <t>91.166,0.95,0.956,0.932,0.913</t>
-  </si>
-  <si>
-    <t>86.2,0.941,0.946,0.866,0.863</t>
-  </si>
-  <si>
-    <t>82.853,0.929,0.927,0.936,0.843</t>
-  </si>
-  <si>
-    <t>85.6,0.925,0.894,0.875,0.858</t>
   </si>
   <si>
     <t>86.278,0.923,0.908,0.767,0.863</t>
@@ -1941,11 +1616,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2264,1118 +1938,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F109"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="11.5"/>
-    <col min="3" max="6" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,537 +1953,537 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A109"/>
@@ -3949,542 +2511,542 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +3056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A109"/>
@@ -4512,542 +3074,542 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>383</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>419</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>427</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
